--- a/ExplorerFund/NetValue/新征程基金记录12月.xlsx
+++ b/ExplorerFund/NetValue/新征程基金记录12月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>对应股份数</t>
   </si>
@@ -181,6 +181,9 @@
     <t>2017年11月24日BDY</t>
   </si>
   <si>
+    <t>陈卫星保证金返回</t>
+  </si>
+  <si>
     <t>基金入金</t>
   </si>
   <si>
@@ -324,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -478,6 +481,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -493,8 +534,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,8 +555,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,14 +602,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -540,14 +609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,65 +620,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -646,7 +649,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +721,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,133 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,11 +843,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,17 +882,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,44 +934,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,136 +960,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1707,10 +1710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A65" sqref="$A65:$XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -3952,7 +3955,7 @@
         <v>101155</v>
       </c>
     </row>
-    <row r="51" s="48" customFormat="1" ht="37.5" spans="1:14">
+    <row r="51" s="48" customFormat="1" spans="1:14">
       <c r="A51" s="92" t="s">
         <v>50</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>99665</v>
       </c>
     </row>
-    <row r="58" s="48" customFormat="1" ht="37.5" spans="1:14">
+    <row r="58" s="48" customFormat="1" spans="1:14">
       <c r="A58" s="92" t="s">
         <v>53</v>
       </c>
@@ -4467,10 +4470,10 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:18">
       <c r="A62" s="82">
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="B62" s="5">
-        <f>K62+L62+M62+N62+O62+P62+Q62+R62</f>
+        <f t="shared" ref="B62:B65" si="11">K62+L62+M62+N62+O62+P62+Q62+R62</f>
         <v>12637290</v>
       </c>
       <c r="C62" s="83">
@@ -4482,15 +4485,15 @@
         <v>614976.485383825</v>
       </c>
       <c r="E62" s="5">
-        <f>B62-D62-F62-G62</f>
-        <v>3297330.79098699</v>
+        <f t="shared" ref="E62:E65" si="12">B62-D62-F62</f>
+        <v>3297333.79098698</v>
       </c>
       <c r="F62" s="5">
         <f>F60*J62</f>
-        <v>8724979.72362919</v>
+        <v>8724979.7236292</v>
       </c>
       <c r="G62" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" s="57">
         <f>B62*H57/B59</f>
@@ -4498,7 +4501,7 @@
       </c>
       <c r="I62" s="57">
         <f>E62/E60</f>
-        <v>1.7097274567475</v>
+        <v>1.7097290123034</v>
       </c>
       <c r="J62" s="57">
         <f>(C62*0.7/100+1)*J57</f>
@@ -4527,6 +4530,137 @@
       </c>
       <c r="R62" s="5">
         <v>99665</v>
+      </c>
+    </row>
+    <row r="63" ht="37.5" spans="1:3">
+      <c r="A63" s="82">
+        <v>43074</v>
+      </c>
+      <c r="B63" s="5">
+        <v>30000</v>
+      </c>
+      <c r="C63" s="93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:18">
+      <c r="A64" s="82">
+        <v>43074</v>
+      </c>
+      <c r="B64" s="5">
+        <f t="shared" si="11"/>
+        <v>12667290</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="5">
+        <v>614976</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="12"/>
+        <v>3327334</v>
+      </c>
+      <c r="F64" s="5">
+        <v>8724980</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="57">
+        <v>1.39242</v>
+      </c>
+      <c r="I64" s="57">
+        <f>E64/E60</f>
+        <v>1.72528467969289</v>
+      </c>
+      <c r="J64" s="57">
+        <v>1.26247</v>
+      </c>
+      <c r="K64" s="97">
+        <v>2448061</v>
+      </c>
+      <c r="L64" s="5">
+        <v>3540520</v>
+      </c>
+      <c r="M64" s="5">
+        <v>3254318</v>
+      </c>
+      <c r="N64" s="5">
+        <v>795689</v>
+      </c>
+      <c r="O64" s="5">
+        <v>341234</v>
+      </c>
+      <c r="P64" s="5">
+        <v>100455</v>
+      </c>
+      <c r="Q64" s="81">
+        <v>2087348</v>
+      </c>
+      <c r="R64" s="5">
+        <v>99665</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:18">
+      <c r="A65" s="82">
+        <v>43077</v>
+      </c>
+      <c r="B65" s="5">
+        <f t="shared" si="11"/>
+        <v>13059507</v>
+      </c>
+      <c r="C65" s="83">
+        <f>(B65/B64-1)*100</f>
+        <v>3.09629762956403</v>
+      </c>
+      <c r="D65" s="5">
+        <f>D60*H65</f>
+        <v>634017.711235546</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="12"/>
+        <v>3700509.28876445</v>
+      </c>
+      <c r="F65" s="5">
+        <v>8724980</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="57">
+        <f>B65*H64/B64</f>
+        <v>1.43553346745358</v>
+      </c>
+      <c r="I65" s="57">
+        <f>E65/E60</f>
+        <v>1.91878302057039</v>
+      </c>
+      <c r="J65" s="57">
+        <f>(C65*0.7/100+1)*J64</f>
+        <v>1.28983288007877</v>
+      </c>
+      <c r="K65" s="97">
+        <v>2572191</v>
+      </c>
+      <c r="L65" s="5">
+        <v>3580900</v>
+      </c>
+      <c r="M65" s="5">
+        <v>3290029</v>
+      </c>
+      <c r="N65" s="5">
+        <v>844044</v>
+      </c>
+      <c r="O65" s="5">
+        <v>341234</v>
+      </c>
+      <c r="P65" s="5">
+        <v>100455</v>
+      </c>
+      <c r="Q65" s="81">
+        <v>2222102</v>
+      </c>
+      <c r="R65" s="5">
+        <v>108552</v>
       </c>
     </row>
   </sheetData>
@@ -4557,24 +4691,24 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="54">
         <v>42958</v>
@@ -4591,7 +4725,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="54">
         <v>43027</v>
@@ -4623,7 +4757,7 @@
         <v>470769.897089701</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
@@ -4674,7 +4808,7 @@
         <v>274742.886448765</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
@@ -21122,7 +21256,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="55">
@@ -21158,7 +21292,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="54">
         <v>42958</v>
@@ -21207,7 +21341,7 @@
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="55">
@@ -21236,7 +21370,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="54">
         <v>43034</v>
@@ -21268,7 +21402,7 @@
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="54">
         <v>42958</v>
@@ -21317,7 +21451,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:10">
       <c r="A28" s="41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="63">
@@ -21330,7 +21464,7 @@
         <v>677461.556454487</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
@@ -21342,7 +21476,7 @@
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="54">
         <v>42958</v>
@@ -21359,24 +21493,24 @@
     </row>
     <row r="34" ht="14.25" spans="1:5">
       <c r="A34" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" s="54">
         <v>42958</v>
@@ -21420,36 +21554,36 @@
   <sheetData>
     <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="15"/>
     </row>
     <row r="4" ht="18.75" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="19">
         <v>42951</v>
@@ -21472,7 +21606,7 @@
     </row>
     <row r="6" ht="18.75" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="19">
         <v>43044</v>
@@ -21489,7 +21623,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -21498,7 +21632,7 @@
     </row>
     <row r="7" ht="18.75" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="19">
         <v>42951</v>
@@ -21526,7 +21660,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="27">
         <f>SUM(E5:E7)</f>
@@ -21561,19 +21695,19 @@
     </row>
     <row r="11" ht="18.75" spans="1:9">
       <c r="A11" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -21582,7 +21716,7 @@
     </row>
     <row r="12" ht="18.75" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="19">
         <v>42958</v>
@@ -21601,7 +21735,7 @@
     </row>
     <row r="13" ht="18.75" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="19">
         <v>42958</v>
@@ -21620,7 +21754,7 @@
     </row>
     <row r="14" ht="18.75" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="19">
         <v>42958</v>
@@ -21639,7 +21773,7 @@
     </row>
     <row r="15" ht="18.75" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="19">
         <v>42958</v>
@@ -21676,26 +21810,26 @@
     </row>
     <row r="18" ht="18.75" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" ht="18.75" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2">
         <v>20170811</v>
@@ -21716,7 +21850,7 @@
     <row r="20" ht="18.75" spans="1:8">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="36">
         <f>SUM(C5:C19)</f>
@@ -21758,26 +21892,26 @@
     </row>
     <row r="24" ht="18.75" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" ht="18.75" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="44">
         <v>910028</v>
@@ -21796,7 +21930,7 @@
     </row>
     <row r="26" ht="18.75" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="32">
         <v>1100000</v>
@@ -21854,28 +21988,28 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -21932,19 +22066,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -21954,7 +22088,7 @@
         <v>20170811</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="8">
         <v>301275</v>
@@ -21987,7 +22121,7 @@
         <v>20170811</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7">
         <v>698725</v>
@@ -22033,13 +22167,13 @@
     </row>
     <row r="10" ht="18.75" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/ExplorerFund/NetValue/新征程基金记录12月.xlsx
+++ b/ExplorerFund/NetValue/新征程基金记录12月.xlsx
@@ -336,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -490,6 +490,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -500,72 +515,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,9 +537,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,20 +579,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -625,7 +625,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,162 +653,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +686,162 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -852,11 +852,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,6 +902,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,47 +949,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,136 +969,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1725,10 +1725,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1747,7 +1747,7 @@
     <col min="12" max="12" width="14.375" style="73" customWidth="1"/>
     <col min="13" max="13" width="13.125" style="73" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="73" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="13.25" customWidth="1"/>
@@ -4824,23 +4824,23 @@
       <c r="K69" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="L69" s="73" t="s">
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="M69" s="73" t="s">
+      <c r="N69" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N69" s="73" t="s">
+      <c r="O69" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O69" s="73" t="s">
+      <c r="P69" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="P69" s="73" t="s">
+      <c r="Q69" s="73" t="s">
         <v>15</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>34</v>
       </c>
       <c r="R69" t="s">
         <v>35</v>
@@ -4851,7 +4851,7 @@
         <v>43081</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" ref="B70:B72" si="13">K70+L70+M70+N70+O70+P70+Q70+R70</f>
+        <f t="shared" ref="B70:B73" si="13">K70+L70+M70+N70+O70+P70+Q70+R70</f>
         <v>13289507</v>
       </c>
       <c r="C70" s="85"/>
@@ -4872,23 +4872,23 @@
       <c r="K70" s="83">
         <v>2572191</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="83">
+        <v>2222102</v>
+      </c>
+      <c r="M70" s="5">
         <v>3580900</v>
       </c>
-      <c r="M70" s="5">
+      <c r="N70" s="5">
         <v>3290029</v>
       </c>
-      <c r="N70" s="99">
+      <c r="O70" s="99">
         <v>1074044</v>
       </c>
-      <c r="O70" s="5">
+      <c r="P70" s="5">
         <v>341234</v>
       </c>
-      <c r="P70" s="5">
+      <c r="Q70" s="5">
         <v>100455</v>
-      </c>
-      <c r="Q70" s="83">
-        <v>2222102</v>
       </c>
       <c r="R70" s="5">
         <v>108552</v>
@@ -4899,7 +4899,7 @@
         <v>43084</v>
       </c>
       <c r="B71" s="5">
-        <f>K71+L71+M71+N71+O71+P71+Q71+R71</f>
+        <f t="shared" si="13"/>
         <v>13870281</v>
       </c>
       <c r="C71" s="85">
@@ -4936,23 +4936,23 @@
       <c r="K71" s="83">
         <v>2666228</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="83">
+        <v>2192447</v>
+      </c>
+      <c r="M71" s="5">
         <v>3858182</v>
       </c>
-      <c r="M71" s="5">
+      <c r="N71" s="5">
         <v>3498315</v>
       </c>
-      <c r="N71" s="83">
+      <c r="O71" s="83">
         <v>1108772</v>
       </c>
-      <c r="O71" s="5">
+      <c r="P71" s="5">
         <v>342602</v>
       </c>
-      <c r="P71" s="5">
+      <c r="Q71" s="5">
         <v>100058</v>
-      </c>
-      <c r="Q71" s="83">
-        <v>2192447</v>
       </c>
       <c r="R71" s="5">
         <v>103677</v>
@@ -4978,23 +4978,23 @@
       <c r="K72" s="83">
         <v>2666228</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="83">
+        <v>2192447</v>
+      </c>
+      <c r="M72" s="5">
         <v>3858182</v>
       </c>
-      <c r="M72" s="5">
+      <c r="N72" s="5">
         <v>3498315</v>
       </c>
-      <c r="N72" s="83">
+      <c r="O72" s="83">
         <v>1108772</v>
       </c>
-      <c r="O72" s="99">
+      <c r="P72" s="99">
         <v>242602</v>
       </c>
-      <c r="P72" s="5">
+      <c r="Q72" s="5">
         <v>100058</v>
-      </c>
-      <c r="Q72" s="83">
-        <v>2192447</v>
       </c>
       <c r="R72" s="5">
         <v>103677</v>
@@ -21365,6 +21365,85 @@
       <c r="XFB72"/>
       <c r="XFC72"/>
       <c r="XFD72"/>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:18">
+      <c r="A73" s="84">
+        <v>43091</v>
+      </c>
+      <c r="B73" s="5">
+        <f t="shared" si="13"/>
+        <v>14100520</v>
+      </c>
+      <c r="C73" s="85">
+        <f>(B73/B72-1)*100</f>
+        <v>2.39820087912512</v>
+      </c>
+      <c r="D73" s="5">
+        <f>D68*H73</f>
+        <v>677593.227478888</v>
+      </c>
+      <c r="E73" s="5">
+        <f>B73-D73-F73</f>
+        <v>3840943.1019525</v>
+      </c>
+      <c r="F73" s="5">
+        <f>F68*J73</f>
+        <v>9581983.67056861</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="58">
+        <f>B73*H71/B72</f>
+        <v>1.53419650291828</v>
+      </c>
+      <c r="I73" s="58">
+        <f>E73/E68</f>
+        <v>1.99160056951624</v>
+      </c>
+      <c r="J73" s="58">
+        <f>(C73*0.7/100+1)*J71</f>
+        <v>1.35160271933742</v>
+      </c>
+      <c r="K73" s="83">
+        <v>2926874</v>
+      </c>
+      <c r="L73" s="83">
+        <v>2467397</v>
+      </c>
+      <c r="M73" s="5">
+        <v>3712421</v>
+      </c>
+      <c r="N73" s="5">
+        <v>3387737</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1149826</v>
+      </c>
+      <c r="P73" s="5">
+        <v>241357</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>127692</v>
+      </c>
+      <c r="R73" s="5">
+        <v>87216</v>
+      </c>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="83"/>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="83"/>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="83"/>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
